--- a/biology/Médecine/1748_en_santé_et_médecine/1748_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1748_en_santé_et_médecine/1748_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1748_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1748_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1748 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1748_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1748_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>John Fothergill (1712-1780) : An account of the sore throat attended with ulcers : A disease which hath of late years appeared in this city, and in several parts of the nation, C. Davis, 1748, 72 p. (lire en ligne), premier ouvrage important sur la diphtérie.
 Jean Jallabert (1712-1768) publie Jean Jallabert, Expériences sur l'électricité, avec quelques conjectures sur la cause de ses effets, Genève, chez Barrillot et fils, 1748, 304 p., in-8° (lire en ligne). On y trouve le récit de la guérison d'une paralysie par l'électricité statique.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1748_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1748_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">13 avril : Samuel Willard (en) (mort en 1801), fondateur du premier hôpital psychiatrique des États-Unis.
 23 avril : Félix Vicq d'Azyr (mort en 1794), médecin, anatomiste et naturaliste français.
